--- a/templates/xlsx/template.xlsx
+++ b/templates/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaichuchung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaichuchung/Library/Mobile Documents/com~apple~CloudDocs/0_KCCHUNG/20-29 Personal, projects/20 personal/20.11 codes/20.11.0004 codes alfred-timelog/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010558A-A889-2245-BDAA-11649A5B118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F325E5A-6C6F-2F4E-A642-3BF9C8FD4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -49,6 +42,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -87,26 +94,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
@@ -331,18 +346,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
-    <col min="2" max="8" width="25.1640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="12.6640625" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -355,258 +370,580 @@
       <c r="A2" s="4">
         <v>5</v>
       </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0.22916666666666666</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>6</v>
       </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0.27083333333333331</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.3125</v>
       </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>0.35416666666666669</v>
       </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>0.39583333333333331</v>
       </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>0.4375</v>
       </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>0.47916666666666669</v>
       </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>0.5</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0.22916666666666666</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>8</v>
       </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>0.35416666666666669</v>
       </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>9</v>
       </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>0.39583333333333331</v>
       </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10</v>
       </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>0.4375</v>
       </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>11</v>
       </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>0.47916666666666669</v>
       </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>0</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>0.52083333333333337</v>
       </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1</v>
       </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>6.25E-2</v>
       </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>0.10416666666666667</v>
       </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>3</v>
       </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>0.14583333333333334</v>
       </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>0.1875</v>
       </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>